--- a/part_3_cohere/golden_set.xlsx
+++ b/part_3_cohere/golden_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B610DB-9EE7-3442-8EBD-A9E954B5A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446D98D-8557-5142-A816-1EFC086F4D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="24760" windowHeight="17440" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>query</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">studies showed the completeness or accuracy or invalidity due to a few publishers. </t>
+  </si>
+  <si>
+    <t>top-k</t>
   </si>
 </sst>
 </file>
@@ -458,19 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8EB78C-47DC-6D45-9388-270DC7642366}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="4" width="45.1640625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="45.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,41 +481,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/part_3_cohere/golden_set.xlsx
+++ b/part_3_cohere/golden_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446D98D-8557-5142-A816-1EFC086F4D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A723260-5FB6-0546-96B3-BBE28DB4F3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="24760" windowHeight="17440" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
+    <workbookView xWindow="1060" yWindow="800" windowWidth="24760" windowHeight="17440" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>query</t>
   </si>
@@ -65,17 +65,57 @@
     <t>which studies examined citations?</t>
   </si>
   <si>
-    <t>["10.1162/qss_a_00112","10.1007/s11192-022-04367-w"]</t>
+    <t>top-k</t>
+  </si>
+  <si>
+    <t>["10.1162/qss_a_00112","10.1007/s11192-022-04367-w", "10.1002/asi.24171","10.3145/epi.2023.mar.09", "10.1371/journal.pbio.1002542"]</t>
+  </si>
+  <si>
+    <t>["10.1109/ACCESS.2024.3395449",]</t>
+  </si>
+  <si>
+    <t>["Metadata is a rich source of information that refers to supplementary data associated with each question",]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metadata is a rich source of information that refers. </t>
   </si>
   <si>
     <t>["study
-differences in the completeness and accuracy of citation links","show that only a few publishers were responsible for and/or affected by the majority of invalid citations"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">studies showed the completeness or accuracy or invalidity due to a few publishers. </t>
-  </si>
-  <si>
-    <t>top-k</t>
+differences in the completeness and accuracy of citation links","show that only a few publishers were responsible for and/or affected by the majority of invalid citations","the number of references that are important ingredients of citation analysis", "Citation metrics are increasingly used to appraise published research"]</t>
+  </si>
+  <si>
+    <t>citation analysis, derived from the number of references, showed the completeness or accuracy or invalidity due to a few publishers, citation metrics are used to appraise research.</t>
+  </si>
+  <si>
+    <t>What is bibliometric metadata?</t>
+  </si>
+  <si>
+    <t>Tell me about OpenAlex.</t>
+  </si>
+  <si>
+    <t>Tell me about Crossref.</t>
+  </si>
+  <si>
+    <t>["Launched in 2022, OpenAlex promised comprehensive, inclusive, and open-source research information",]</t>
+  </si>
+  <si>
+    <t>OpenAlex started in 2022 and provides open-source metadata.</t>
+  </si>
+  <si>
+    <t>["10.1162/qss_a_00212","10.31274/b8136f97.ccc3dae4","10.31222/osf.io/smxe5","10.1007/s11192-022-04367-w","10.1162/qss_a_00022","10.1590/SciELOPreprints.11205","10.1162/qss_a_00286","10.1162/qss_a_00210","10.1162/qss_a_00112"]</t>
+  </si>
+  <si>
+    <t>["limited coverage of funding data in Crossref.","OpenAlex uses Crossref as a major building block in its dataset","bibliographic metadata of scholarly publications in Crossref","open bibliographic metadata available in Crossre","Crossref a valuable source for research in scientometrics, including measuring the growth and impact of science and understanding new trends in scholarly communications","findings underscore the central role of Crossref DOIs in achieving indexing, with 97% of the journals using Crossref DOIs included in OpenAlex","Crossref sample of more than 115,000 records, which was then searched in seven databases","Only 67% of these articles contain funding information in Crossref","a large-scale comparison of five multidisciplinary bibliographic data
+sources: Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossref is a registration agency, a repository of DOIs, and is a major source of scholarly metadata for other databases. </t>
+  </si>
+  <si>
+    <t>["10.5281/zenodo.14006425","10.48550/arXiv.2404.17663"]</t>
+  </si>
+  <si>
+    <t>["OpenAlex offers a high coverage of publication and author information","OpenAlex is a superset of Scopus and can be a reliable alternative for some analyses"]</t>
   </si>
 </sst>
 </file>
@@ -461,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8EB78C-47DC-6D45-9388-270DC7642366}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -498,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -507,21 +547,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/part_3_cohere/golden_set.xlsx
+++ b/part_3_cohere/golden_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A723260-5FB6-0546-96B3-BBE28DB4F3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6400A5-CBE1-F74D-BC6A-FB0BB9D527F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="800" windowWidth="24760" windowHeight="17440" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
+    <workbookView xWindow="1060" yWindow="800" windowWidth="26200" windowHeight="17980" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,86 +36,455 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>query</t>
   </si>
   <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>ref_text</t>
-  </si>
-  <si>
     <t>expected_response</t>
   </si>
   <si>
     <t>which studies examined the abstract in metadata?</t>
   </si>
   <si>
-    <t>["Seven characteristics were analyzed (abstract, access, bibliographic info, document type, publication date, language, and identifiers)","The abstracts of preprints urgently produced in response to the COVID-19 crisis stand between uncertainty and over-promotion,","only a negligible number of published articles reports limitations in the abstracts","Our system first initiates a web search to retrieve relevant papers by summarizing user-provided abstracts into keywords using an off-the-shelf LLM","OpenAlex shows mixed results when broken down by journal, capturing more ORCID identifiers, fewer abstracts and a similar number of Open Access status indicators","We present an up-to-date overview of the availability of six metadata elements in Crossref: reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information."]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">studies were split into those that analyzed the presence of abstracts in metadata from a database, and those investigating abstract use with LLMs. </t>
-  </si>
-  <si>
-    <t>["10.1162/qss_a_00286","10.1002/leap.1411","10.1007/s11192-020-03632-0","10.48550/arXiv.2402.01788","10.48550/arXiv.2401.16359","10.31222/osf.io/smxe5"]</t>
-  </si>
-  <si>
     <t>which studies examined citations?</t>
   </si>
   <si>
-    <t>top-k</t>
-  </si>
-  <si>
-    <t>["10.1162/qss_a_00112","10.1007/s11192-022-04367-w", "10.1002/asi.24171","10.3145/epi.2023.mar.09", "10.1371/journal.pbio.1002542"]</t>
-  </si>
-  <si>
-    <t>["10.1109/ACCESS.2024.3395449",]</t>
-  </si>
-  <si>
-    <t>["Metadata is a rich source of information that refers to supplementary data associated with each question",]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metadata is a rich source of information that refers. </t>
-  </si>
-  <si>
-    <t>["study
-differences in the completeness and accuracy of citation links","show that only a few publishers were responsible for and/or affected by the majority of invalid citations","the number of references that are important ingredients of citation analysis", "Citation metrics are increasingly used to appraise published research"]</t>
-  </si>
-  <si>
-    <t>citation analysis, derived from the number of references, showed the completeness or accuracy or invalidity due to a few publishers, citation metrics are used to appraise research.</t>
-  </si>
-  <si>
-    <t>What is bibliometric metadata?</t>
-  </si>
-  <si>
     <t>Tell me about OpenAlex.</t>
   </si>
   <si>
     <t>Tell me about Crossref.</t>
   </si>
   <si>
-    <t>["Launched in 2022, OpenAlex promised comprehensive, inclusive, and open-source research information",]</t>
-  </si>
-  <si>
-    <t>OpenAlex started in 2022 and provides open-source metadata.</t>
-  </si>
-  <si>
     <t>["10.1162/qss_a_00212","10.31274/b8136f97.ccc3dae4","10.31222/osf.io/smxe5","10.1007/s11192-022-04367-w","10.1162/qss_a_00022","10.1590/SciELOPreprints.11205","10.1162/qss_a_00286","10.1162/qss_a_00210","10.1162/qss_a_00112"]</t>
   </si>
   <si>
-    <t>["limited coverage of funding data in Crossref.","OpenAlex uses Crossref as a major building block in its dataset","bibliographic metadata of scholarly publications in Crossref","open bibliographic metadata available in Crossre","Crossref a valuable source for research in scientometrics, including measuring the growth and impact of science and understanding new trends in scholarly communications","findings underscore the central role of Crossref DOIs in achieving indexing, with 97% of the journals using Crossref DOIs included in OpenAlex","Crossref sample of more than 115,000 records, which was then searched in seven databases","Only 67% of these articles contain funding information in Crossref","a large-scale comparison of five multidisciplinary bibliographic data
-sources: Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crossref is a registration agency, a repository of DOIs, and is a major source of scholarly metadata for other databases. </t>
-  </si>
-  <si>
-    <t>["10.5281/zenodo.14006425","10.48550/arXiv.2404.17663"]</t>
-  </si>
-  <si>
-    <t>["OpenAlex offers a high coverage of publication and author information","OpenAlex is a superset of Scopus and can be a reliable alternative for some analyses"]</t>
+    <t>ground_truth</t>
+  </si>
+  <si>
+    <t>n_ground_truth</t>
+  </si>
+  <si>
+    <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+  </si>
+  <si>
+    <t>["10.1007/s11192-015-1765-5","10.48550/arXiv.2404.01985","10.48550/arXiv.2409.10633","10.48550/arXiv.2502.03627","10.48550/arXiv.2505.18247"]</t>
+  </si>
+  <si>
+    <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+  </si>
+  <si>
+    <t>["10.1162/qss_a_00210","10.1162/qss_a_00212","10.1162/qss_a_00286","10.31274/b8136f97.ccc3dae4","10.48550/arXiv.2401.16359"]</t>
+  </si>
+  <si>
+    <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+  </si>
+  <si>
+    <t>["10.1007/978-3-031-88708-6_3","10.1609/aaai.v38i16.29728","10.48550/arXiv.2312.10997","10.48550/arXiv.2402.11782","10.48550/arXiv.2406.13213"]</t>
+  </si>
+  <si>
+    <t>What is Crossref’s role in the scholarly research ecosystem?</t>
+  </si>
+  <si>
+    <t>["10.1162/qss_a_00022","10.1162/qss_a_00210","10.1162/qss_a_00212","10.1162/qss_a_00286","10.31222/osf.io/smxe5"]</t>
+  </si>
+  <si>
+    <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+  </si>
+  <si>
+    <t>["10.3145/epi.2023.mar.09","10.1590/SciELOPreprints.11205","10.48550/arXiv.2401.16359","10.48550/arXiv.2404.17663","10.48550/arXiv.2409.10633"]</t>
+  </si>
+  <si>
+    <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+  </si>
+  <si>
+    <t>["10.1007/s11192-015-1765-5","10.1162/qss_a_00112","10.48550/arXiv.2401.16359","10.48550/arXiv.2404.01985","10.48550/arXiv.2409.10633"]</t>
+  </si>
+  <si>
+    <t>How is RAG used to improve question answering or information retrieval systems?</t>
+  </si>
+  <si>
+    <t>["10.1007/978-3-031-88708-6_3","10.1109/ACCESS.2024.3395449","10.6109/jkiice.2023.27.12.1489","10.48550/arXiv.2406.13213","10.48550/arXiv.2505.18247"]</t>
+  </si>
+  <si>
+    <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+  </si>
+  <si>
+    <t>["10.1007/s11192-015-1765-5","10.1162/qss_a_00112","10.1162/qss_a_00210","10.1162/qss_a_00212","10.1371/journal.pbio.1002542"]</t>
+  </si>
+  <si>
+    <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+  </si>
+  <si>
+    <t>["10.5281/ZENODO.13960973","10.1007/s11192-022-04367-w","10.1007/s11192-023-04923-y","10.31222/osf.io/smxe5","10.1162/qss_a_00286"]</t>
+  </si>
+  <si>
+    <t>["10.3145/epi.2023.mar.09","10.1590/SciELOPreprints.11205","10.1007/s11192-023-04923-y","10.31274/b8136f97.ccc3dae4","10.48550/arXiv.2401.16359","10.48550/arXiv.2404.17663","10.48550/arXiv.2409.10633"]</t>
+  </si>
+  <si>
+    <t>["10.1007/s11192-022-04367-w","10.1371/journal.pbio.1002542","10.1007/s11192-015-1765-5","10.1162/qss_a_00112","10.1162/qss_a_00210"]</t>
+  </si>
+  <si>
+    <t>["10.1002/leap.1411","10.1007/s11192-020-03632-0","10.1162/qss_a_00286","10.1162/qss_a_00022","10.31222/osf.io/smxe5"]</t>
+  </si>
+  <si>
+    <t>Lexical content changes in abstracts during the COVID-19 crisis.
+Characteristics of abstracts in scientific articles published during pandemics.
+Analysis of abstract completeness and metadata quality in academic search engines and databases.
+Availability and improvements in abstract metadata over time in Crossref.</t>
+  </si>
+  <si>
+    <t>Identifying and correcting invalid citations due to DOI errors.
+Normalization of citation metrics across scientific fields.
+Comparative analysis of citation links in bibliographic databases.
+Tracking funding information through citations and acknowledgments.</t>
+  </si>
+  <si>
+    <t>OpenAlex is presented as a promising open-source bibliometric database, offering broad coverage and accessibility. Studies highlight its strengths, such as preserving and improving upon MAG's data, achieving high indexing rates for journals, and providing balanced linguistic coverage. However, challenges include missing institutional metadata, limitations in funder metadata, and inaccuracies in language metadata. Comparisons with proprietary databases like Scopus and Web of Science show OpenAlex is a reliable alternative for some analyses, though further improvements in metadata quality and completeness are needed. Its role in fostering equitable indexing and supporting reproducible research is also emphasized.</t>
+  </si>
+  <si>
+    <t>Crossref is portrayed as a major source of scholarly metadata, offering over 106 million records and playing a critical role in scientometrics, citation management, and open access to bibliographic data. Studies highlight its strengths, such as improving metadata availability over time and serving as a foundation for databases like OpenAlex. However, challenges include limitations in funding data coverage, DOI errors leading to invalid citations, and gaps in metadata completeness. Crossref is also compared favorably to academic search engines for metadata quality but is noted for its optional fields, which can result in missing information. Its role in scholarly infrastructure is underscored, though improvements are suggested for addressing representation and data accuracy issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biases in Traditional Databases: WoS and Scopus are criticized for overrepresenting English and favoring certain disciplines, marginalizing linguistically diverse fields (DOI: 10.1007/s11192-015-1765-5).
+    Open Access and Language Diversity: OpenAlex is examined for its coverage of non-English journals, particularly in open access models, though gold journals remain predominantly English (DOI: 10.48550/arXiv.2404.01985).
+    Metadata Accuracy: OpenAlex’s language metadata is found to be more balanced than WoS but contains inaccuracies, requiring critical use and infrastructural improvements (DOI: 10.48550/arXiv.2409.10633).
+    Cross-Linguistic Research Potential: OpenAlex is highlighted as a valuable resource for cross-linguistic studies, supported by language classification algorithms (DOI: 10.48550/arXiv.2502.03627).
+    Semantic Handling of Multilingual Data: While not explicitly evaluating linguistic coverage, MetaGen Blended RAG demonstrates potential for handling multilingual and specialized terminology in enterprise search (DOI: 10.48550/arXiv.2505.18247).
+</t>
+  </si>
+  <si>
+    <t>Assessing Availability: Highlighting gaps in funding metadata availability, particularly in Crossref (DOIs: 10.1162/qss_a_00210, 10.1162/qss_a_00212).
+    Comparing Databases: Contrasting funding metadata completeness and methods of capture in OpenAlex, Dimensions, and proprietary databases (DOIs: 10.31274/b8136f97.ccc3dae4, 10.1162/qss_a_00286).
+    Identifying Challenges: Noting issues like optional fields in DOI registration and reliance on publisher-provided data (DOI: 10.31274/b8136f97.ccc3dae4).
+    Recommending Improvements: Suggesting enhancements for open funding data availability and quality in Crossref (DOI: 10.1162/qss_a_00212).
+Together, these studies emphasize the need for standardized and comprehensive funding metadata in scholarly databases to improve transparency and traceability of research funding.</t>
+  </si>
+  <si>
+    <t>Evaluation and Benchmarking: Diagnosing RAG’s impact on LLMs (DOI: 10.1609/aaai.v38i16.29728) and analyzing its components (DOI: 10.1007/978-3-031-88708-6_3).
+    Methodological Advances: Proposing new methods like Multi-Meta-RAG for multi-hop queries (DOI: 10.48550/arXiv.2406.13213) and reviewing RAG paradigms (DOI: 10.48550/arXiv.2312.10997).
+    Application Challenges: Highlighting issues in handling subjective queries (DOI: 10.48550/arXiv.2402.11782) and limitations in negative rejection and information integration (DOI: 10.1609/aaai.v38i16.29728).
+    Corpus Quality: Emphasizing the need for high-quality RAG corpora to align with human judgments (DOI: 10.48550/arXiv.2402.11782).
+Together, these studies advance the understanding and application of RAG in LLMs, addressing both theoretical foundations and practical challenges.</t>
+  </si>
+  <si>
+    <t>Crossref plays a central role in the scholarly research ecosystem by:
+Providing Scholarly Metadata: Serving as a major source of community-owned metadata, including abstracts, funding information, and citation links.
+    Supporting Funders: Enabling tracking of research outputs through initiatives like FundRef, though with noted gaps in completeness.
+    Enhancing Data Quality: Improving metadata availability over time, though challenges remain in ensuring full openness and accuracy.
+    Facilitating Research: Supporting scientometrics, bibliometrics, and trend analysis in scholarly communications.
+These studies highlight Crossref’s critical role in fostering transparency, traceability, and accessibility in scholarly research, while also identifying areas for improvement in metadata completeness and quality.</t>
+  </si>
+  <si>
+    <t>Refernces:</t>
+  </si>
+  <si>
+    <t>DOI: 10.1162/qss_a_00022
+ Describes Crossref as a sustainable source of community-owned scholarly metadata, containing over 106 million records and expanding at an average rate of 11% annually.
+    Highlights its role in providing metadata for publishers, authors, librarians, funders, and researchers, including abstracts, funding information, citation links, and corrections.
+    Emphasizes Crossref’s importance in scientometrics, such as measuring the growth and impact of science and understanding trends in scholarly communications.
+DOI: 10.1162/qss_a_00210
+Focuses on Crossref’s FundRef initiative, which enables publishers to register funding information using persistent identifiers, helping funders track publication outputs.
+    Notes that only 67% of articles funded by the Dutch Research Council contain funding information in Crossref, highlighting gaps in metadata completeness.
+DOI: 10.1162/qss_a_00212
+Examines Crossref’s role in providing open funding data for COVID-19 research, comparing it with proprietary databases like Scopus and Web of Science.
+    Identifies limited coverage and quality issues in Crossref’s funding data, emphasizing the need for improvements in open availability.
+DOI: 10.1162/qss_a_00286
+Compares Crossref’s metadata quality with other databases, noting it has more complete metadata than academic search engines but faces challenges in integrating data from different sources.
+    Highlights Crossref’s role in providing reliable descriptive data for scholarly publications, supporting research in scientometrics and bibliometrics.
+DOI: 10.31222/osf.io/smxe5
+Analyzes the availability of six metadata elements in Crossref (e.g., reference lists, abstracts, ORCIDs, funding information).
+    Shows improvements in metadata availability over time but notes that many publishers need to make additional efforts to ensure full openness of bibliographic metadata.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/978-3-031-88708-6_3 
+Investigates whether relevance is propagated from the retriever to the generator in RAG systems.
+    Empirically studies the correlation between relevance and utility in RAG contexts, finding a small positive correlation that decreases with larger context sizes.
+    Highlights the importance of effective retrieval models for better downstream RAG performance.
+DOI: 10.1609/aaai.v38i16.29728
+Systematically evaluates the impact of RAG on large language models (LLMs) across four fundamental abilities: noise robustness, negative rejection, information integration, and counterfactual robustness.
+    Introduces the Retrieval-Augmented Generation Benchmark (RGB) for English and Chinese, diagnosing challenges in applying RAG to LLMs.
+    Finds LLMs struggle with negative rejection, information integration, and handling false information despite exhibiting noise robustness.
+DOI: 10.48550/arXiv.2312.10997
+Provides a comprehensive review of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG.
+    Examines the tripartite foundation of RAG frameworks: retrieval, generation, and augmentation techniques.
+    Highlights RAG’s role in enhancing accuracy, credibility, and continuous knowledge updates in LLMs, particularly for knowledge-intensive tasks.
+DOI: 10.48550/arXiv.2402.11782
+Studies how retrieval-augmented language models handle subjective and conflicting queries, such as "Is aspartame linked to cancer?"
+    Constructs the ConflictingQA dataset to analyze which text features (e.g., relevance, stylistic elements) most affect LLM predictions.
+    Finds models rely heavily on query relevance while ignoring human-important features like scientific references or neutral tone, emphasizing the need for high-quality RAG corpora.
+DOI: 10.48550/arXiv.2406.13213
+Introduces Multi-Meta-RAG, a method to improve RAG for multi-hop queries using database filtering with LLM-extracted metadata.
+    Enhances RAG’s selection of relevant documents from various sources, significantly improving results on the MultiHop-RAG benchmark.
+    Addresses traditional RAG’s poor performance in multi-hop question answering.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1162/qss_a_00210 - Examines the availability and completeness of open funder metadata in Crossref, focusing on publications funded by the Dutch Research Council.
+    Finds only 67% of articles contain funding information, with variations among publishers and databases.
+    Highlights differences between open metadata in Crossref and proprietary databases like Web of Science, Scopus, and Dimensions.
+DOI: 10.1162/qss_a_00212 - Studies the open availability of funding data in Crossref for COVID-19 research, comparing it with Scopus and Web of Science.
+    Identifies limited coverage and quality issues in Crossref’s funding data, particularly in Scopus.
+    Offers recommendations for improving the open availability of funding data in Crossref.
+DOI: 10.1162/qss_a_00286 - Compares metadata completeness in academic search engines and third-party databases, including funding information.
+    Finds third-party databases (e.g., Dimensions, OpenAlex) have higher metadata quality, including funding data, compared to academic search engines.
+DOI: 10.31274/b8136f97.ccc3dae4 - Compares funder metadata in OpenAlex and Dimensions, noting OpenAlex relies on Crossref for metadata, while Dimensions uses natural language processing to infer funders.
+    Highlights the limitations of OpenAlex in capturing funder metadata due to optional fields in DOI registration.
+DOI: 10.48550/arXiv.2401.16359 - Analyzes metadata in OpenAlex, Web of Science, and Scopus, including funding information.
+    Finds OpenAlex captures fewer abstracts but includes a similar number of Open Access status indicators per article compared to proprietary databases.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/s11192-015-1765-5 - Compares the journal coverage of Web of Science (WoS) and Scopus, noting that English-language journals are overrepresented to the detriment of other languages.
+    Highlights biases in these databases that favor Natural Sciences and Engineering, often at the expense of Social Sciences, Arts, and Humanities, which are more linguistically diverse.
+DOI: 10.48550/arXiv.2404.01985 - Investigates the open access coverage of OpenAlex, Scopus, and WoS, focusing on authorship and journal coverage by field, country, and language.
+    Finds a higher share of English-only journals among gold open access journals and highlights the local scope of diamond open access journals, often serving non-English communities.
+DOI: 10.48550/arXiv.2409.10633 - Evaluates OpenAlex’s linguistic coverage by comparing it with WoS and manually validating a sample of 6,836 articles.
+    Finds OpenAlex has more balanced linguistic coverage than WoS but notes inaccuracies in language metadata, leading to overestimation of English and underestimation of other languages.
+DOI: 10.48550/arXiv.2502.03627 - Compares language classification procedures using Python algorithms and metadata-based corpora from OpenAlex.
+    Assesses precision and recall performance for each algorithm and corpus type, highlighting the potential of OpenAlex for cross-linguistic bibliometric research.
+DOI: 10.48550/arXiv.2505.18247 - Introduces 'MetaGen Blended RAG,' a method for enhancing semantic retrievers in enterprise search, particularly for specialized domains with multilingual and complex terminology.
+    Demonstrates robust performance across datasets like PubMedQA, SQuAD, and NQ, though the focus is more on semantic variability than explicit linguistic coverage evaluation.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1162/qss_a_00212 - Examines Crossref’s open availability of funding data for COVID-19 research, comparing it with Scopus and Web of Science.
+    Highlights limitations in Crossref’s funding data coverage and quality, suggesting areas for improvement.
+DOI: 10.31274/b8136f97.ccc3dae4 - Discusses Crossref’s role as a major building block for OpenAlex’s dataset, particularly for funder metadata.
+    Notes that Crossref’s optional funder metadata fields often result in missing information.
+DOI: 10.31222/osf.io/smxe5 - Analyzes the availability of metadata elements (e.g., reference lists, abstracts, ORCIDs) in Crossref over time.
+    Shows improvements in metadata availability but emphasizes the need for publishers to ensure full openness.
+DOI: 10.1007/s11192-022-04367-w - Identifies and corrects invalid citations due to DOI errors in Crossref data.
+    Highlights Crossref’s role in managing bibliographic metadata and the need for error correction mechanisms.
+DOI: 10.1162/qss_a_00022 - Describes Crossref as a sustainable source of community-owned scholarly metadata, with over 106 million records.
+    Details its metadata content types, APIs, and role in scientometrics, including citation data provision.
+DOI: 10.1590/SciELOPreprints.11205 - Highlights Crossref DOIs as central to achieving indexing in OpenAlex.
+    Notes Crossref’s role in scholarly infrastructure but points out underrepresentation of resource-limited journals.
+DOI: 10.1162/qss_a_00286 - Compares metadata completeness in Crossref with other databases, finding it has higher quality than academic search engines.
+    Emphasizes Crossref’s role in providing reliable descriptive data for scholarly publications.
+DOI: 10.1162/qss_a_00210 - Studies the availability and completeness of funder metadata in Crossref, focusing on the Dutch Research Council.
+    Finds only 67% of articles contain funding information, highlighting gaps in Crossref’s metadata.
+DOI: 10.1162/qss_a_00112 - Compares Crossref with other bibliographic data sources like Scopus and Web of Science.
+    Highlights Crossref’s comprehensive coverage of scholarly literature and its role in metadata provision.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/s11192-022-04367-w
+Focuses on identifying and correcting invalid citations due to DOI errors in Crossref data.
+    Analyzes patterns of factual errors in invalid DOIs and proposes a cleaning mechanism for automatic correction.
+    Highlights the role of specific publishers in producing invalid citations and the need for error correction in bibliographic metadata.
+DOI: 10.1371/journal.pbio.1002542
+Discusses citation metrics and their normalization to account for differences across scientific fields, publication age, document type, and database coverage.
+    Examines challenges in combining citation metrics across multiple papers for appraising scientists, institutions, journals, or countries.
+    Emphasizes the need to carefully consider assumptions underlying citation metric calculations.
+DOI: 10.1007/s11192-015-1765-5
+Compares the journal coverage of Web of Science (WoS) and Scopus, including their completeness and accuracy of citation links.
+    Highlights biases in these databases favoring Natural Sciences and Engineering, often at the expense of Social Sciences and Humanities.
+    Notes overrepresentation of English-language journals and the impact on citation analysis.
+DOI: 10.1162/qss_a_00112
+Presents a large-scale comparison of five multidisciplinary bibliographic data sources, including Scopus, WoS, Dimensions, Crossref, and Microsoft Academic.
+    Analyzes differences in citation link completeness and accuracy across these databases.
+    Emphasizes the importance of combining comprehensive coverage with flexible filters for literature selection.
+DOI: 10.1162/qss_a_00210
+Examines the availability and completeness of funding metadata in Crossref, including funding acknowledgments in citations.
+    Finds only 67% of articles funded by the Dutch Research Council contain funding information, highlighting gaps in metadata completeness.</t>
+  </si>
+  <si>
+    <t>DOI: 10.3145/epi.2023.mar.09
+Compares OpenAlex with Microsoft Academic Graph (MAG) in terms of bibliometric metadata, highlighting that OpenAlex preserves MAG's data and improves subject classification assignments.
+    Suggests OpenAlex is at least as suited for bibliometric analyses as MAG, especially for publication years before 2021.
+DOI: 10.1590/SciELOPreprints.11205
+Analyzes OpenAlex’s indexing of journals using Open Journal Systems (OJS), finding that 71% of active OJS journals are indexed in OpenAlex.
+    Highlights the role of Crossref DOIs in achieving indexing but notes underrepresentation of resource-limited and non-English journals.
+DOI: 10.1007/s11192-023-04923-y
+Investigates the issue of missing institutions in OpenAlex’s journal article metadata, particularly in early years and in social sciences and humanities.
+    Emphasizes the need for data quality improvements in open resources like OpenAlex.
+DOI: 10.31274/b8136f97.ccc3dae4
+Compares funder metadata in OpenAlex and Dimensions, noting that OpenAlex relies heavily on Crossref for metadata, while Dimensions uses natural language processing to infer funders.
+    Highlights OpenAlex’s limitations in capturing funder metadata due to optional fields in DOI registration.
+DOI: 10.48550/arXiv.2401.16359
+Compares reference coverage and metadata in OpenAlex, Web of Science, and Scopus, finding OpenAlex has comparable internal coverage and source reference numbers.
+    Notes OpenAlex captures more ORCID identifiers but fewer abstracts compared to proprietary databases.
+DOI: 10.48550/arXiv.2404.17663
+Assesses OpenAlex’s suitability for bibliometric analyses, concluding it is a superset of Scopus and a reliable alternative for some analyses, particularly at the country level.
+    Highlights issues with metadata accuracy and completeness that require further research.
+DOI: 10.48550/arXiv.2409.10633
+Evaluates OpenAlex’s linguistic coverage, finding it more balanced than Web of Science but with inaccuracies in language metadata.
+    Suggests OpenAlex can provide comprehensive analyses if used critically, but infrastructural improvements are needed for metadata quality.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1002/leap.1411
+Investigates lexical content changes in abstracts of preprints during the COVID-19 crisis.
+    Analyzes the increase in positive words (e.g., "effective") and hedge words (e.g., "can," "may") in abstracts, reflecting a balance between over-promotion and caution.
+DOI: 10.1007/s11192-020-03632-0
+Examines characteristics of abstracts in scientific articles published during the first 3 months of the COVID-19 pandemic, comparing them with H1N1 articles.
+    Finds a higher prevalence of reviews and guidance articles in COVID-19 abstracts, with fewer in vitro and animal research studies compared to H1N1.
+DOI: 10.1162/qss_a_00286
+Compares metadata completeness in academic search engines and third-party databases, including the presence of abstracts.
+    Finds third-party databases (e.g., Dimensions, OpenAlex) have higher abstract completeness rates compared to academic search engines.
+DOI: 10.1162/qss_a_00022
+Describes Crossref’s role in providing scholarly metadata, including abstracts, as part of its over 106 million records.
+    Highlights the inclusion of abstracts in Crossref’s metadata set, which supports research in scientometrics and scholarly communications.
+DOI: 10.31222/osf.io/smxe5
+Analyzes the availability of metadata elements in Crossref, including abstracts, over time.
+    Shows improvements in abstract availability for journal articles but notes the need for publishers to ensure full openness of metadata.</t>
+  </si>
+  <si>
+    <t>OpenAlex is highlighted as a promising open-source bibliometric database with the following key features:
+Comprehensive Coverage: Acts as a superset of Scopus and achieves high indexing rates for journals.
+    Balanced Linguistic Representation: Offers more inclusive linguistic coverage compared to traditional databases.
+    Comparable Metadata: Provides reference coverage and metadata quality similar to Web of Science and Scopus in certain datasets.
+However, its limitations include:
+Metadata Inaccuracies: Issues with language metadata and incomplete or inaccurate data.
+    Underrepresentation: Structural inequities lead to underrepresentation of resource-limited and non-English journals.
+    Mixed Metadata Quality: Variability in metadata completeness and accuracy across journals and fields.
+These studies emphasize OpenAlex’s potential as an inclusive alternative to proprietary databases but call for improvements in metadata quality and infrastructural support to address its limitations.</t>
+  </si>
+  <si>
+    <t>DOI: 10.3145/epi.2023.mar.09
+Key Features: Preserves and improves upon Microsoft Academic Graph (MAG) data, including subject classification assignments.
+    Limitations: Faces challenges in handling reclassifications and document type specifications, particularly for journal articles and book chapters.
+DOI: 10.1590/SciELOPreprints.11205
+Key Features: Achieves high indexing rates for journals using Open Journal Systems (OJS), with 71% of active OJS journals included.
+    Limitations: Underrepresents resource-limited journals, particularly those from low-income countries and non-English language journals, due to structural inequities.
+DOI: 10.48550/arXiv.2401.16359
+Key Features: Provides reference coverage and metadata comparable to Web of Science and Scopus in a cleaned dataset of 16.8 million recent publications.
+    Limitations: Captures fewer abstracts compared to proprietary databases and exhibits mixed results in core metadata coverage when broken down by journal.
+DOI: 10.48550/arXiv.2404.17663
+Key Features: Acts as a superset of Scopus, offering a reliable alternative for some analyses, particularly at the country level.
+    Limitations: Faces issues with metadata accuracy and completeness, requiring additional research to address these limitations for broader use.
+DOI: 10.48550/arXiv.2409.10633
+Key Features: Exhibits more balanced linguistic coverage than Web of Science, making it valuable for multilingual bibliometric research.
+    Limitations: Contains inaccuracies in language metadata, overestimating English and underestimating other languages, requiring infrastructural improvements.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/s11192-015-1765-5
+Strengths: Comprehensive journal coverage with accurate citation links, favoring Natural Sciences and Engineering.
+    Weaknesses: Overrepresents English-language journals and underrepresents Social Sciences, Arts, and Humanities, leading to biases in citation analysis.
+DOI: 10.1162/qss_a_00112
+Strengths: Provides reliable and complete citation links, making it a trusted source for bibliometric analysis.
+    Weaknesses: Exhibits differences in coverage and citation accuracy when compared to other databases like Scopus, Dimensions, and Crossref.
+DOI: 10.48550/arXiv.2401.16359
+Strengths: Offers reference coverage and metadata quality comparable to OpenAlex and Scopus in a cleaned dataset of 16.8 million publications.
+    Weaknesses: Captures fewer ORCID identifiers and exhibits mixed results in core metadata coverage when broken down by journal.
+DOI: 10.48550/arXiv.2404.01985
+Strengths: Provides higher coverage of gold open access journals compared to OpenAlex and Scopus, particularly in English.
+    Weaknesses: Has lower coverage of diamond open access journals, which often serve local and non-English communities.
+DOI: 10.48550/arXiv.2409.10633
+Strengths: Highly curated with decades of established use in scientometrics.
+    Weaknesses: Exhibits biased linguistic coverage, overestimating English and underestimating other languages, limiting its inclusivity in multilingual research.</t>
+  </si>
+  <si>
+    <t>Web of Science (WoS) is recognized for its strengths:
+Comprehensive Coverage: Strong in Natural Sciences and Engineering with accurate citation links.
+    Reliability: Highly curated and widely trusted for bibliometric analysis.
+    Comparable Metadata: Offers metadata quality similar to other major databases in certain datasets.
+However, its weaknesses include:
+Linguistic Bias: Overrepresents English and underrepresents non-English languages, limiting inclusivity.
+    Disciplinary Bias: Favors certain fields while marginalizing Social Sciences, Arts, and Humanities.
+    Limited Open Access Coverage: Poor representation of diamond open access journals serving local communities.
+These studies highlight WoS as a robust but biased tool</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/978-3-031-88708-6_3
+Application: Investigates the role of relevance in RAG systems, focusing on the relationship between retriever and generator.
+    Improvement: Highlights the importance of effective retrieval models for better downstream RAG performance, as relevance correlates with utility in question answering.
+DOI: 10.1109/ACCESS.2024.3395449
+Application: Proposes a method to enhance question retrieval in community question answering (CQA) using metadata and transformer-based techniques.
+    Improvement: Leverages metadata and RAG to overcome lexical gaps in retrieval systems, achieving state-of-the-art performance in question retrieval.
+DOI: 10.6109/jkiice.2023.27.12.1489
+Application: Introduces Metadata Retrieval-Augmented Generation (M-RAG) for open-domain question answering (ODQA).
+    Improvement: Uses embeddings with metadata and generative models like GPT-3.5/4 to understand query context, enhancing answer accuracy and source attribution capabilities.
+DOI: 10.48550/arXiv.2406.13213
+Application: Proposes Multi-Meta-RAG to improve RAG for multi-hop queries using database filtering and LLM-extracted metadata.
+    Improvement: Enhances RAG’s ability to retrieve and reason over multiple elements of supporting evidence, significantly improving results on the MultiHop-RAG benchmark.
+DOI: 10.48550/arXiv.2505.18247
+Application: Introduces MetaGen Blended RAG for specialized domain question answering, particularly in enterprise datasets.
+    Improvement: Enhances semantic retrievers through metadata generation and hybrid query indexes, achieving high retrieval and RAG accuracy without fine-tuning, even in specialized domains.</t>
+  </si>
+  <si>
+    <t>RAG is used to improve question answering and information retrieval systems by:
+   Enhancing Relevance: Improving the correlation between retriever and generator for better utility (DOI: 10.1007/978-3-031-88708-6_3).
+    Overcoming Lexical Gaps: Leveraging metadata to address discrepancies in terminologies (DOI: 10.1109/ACCESS.2024.3395449).
+    Incorporating Context: Using metadata to understand query context and improve answer accuracy (DOI: 10.6109/jkiice.2023.27.12.1489).
+    Handling Multi-Hop Queries: Improving retrieval and reasoning over multiple evidence elements (DOI: 10.48550/arXiv.2406.13213).
+    Specialized Domain Performance: Achieving high accuracy in enterprise datasets without fine-tuning (DOI: 10.48550/arXiv.2505.18247).
+These studies demonstrate RAG’s versatility in addressing various challenges in question answering and information retrieval, from lexical gaps to complex multi-hop queries and specialized domains.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/s11192-015-1765-5
+Challenge: Biases in Database Coverage. Databases like Web of Science (WoS) and Scopus overrepresent Natural Sciences and Engineering, underrepresenting Social Sciences, Arts, and Humanities. This skews citation metrics in favor of certain fields.
+    Impact: Normalization efforts must account for these disciplinary biases to ensure fairness across fields.
+DOI: 10.1162/qss_a_00112
+Challenge: Variability in Citation Practices. Different fields have distinct citation cultures and publication rates, making direct comparisons of raw citation counts misleading.
+    Impact: Normalization requires field-specific adjustments to account for these variations.
+DOI: 10.1162/qss_a_00210
+Challenge: Incompleteness of Funding Metadata. Only 67% of articles funded by the Dutch Research Council contain funding information in Crossref, leading to incomplete citation context.
+    Impact: Inaccurate or missing funding data can distort citation metrics, particularly in interdisciplinary research.
+DOI: 10.1162/qss_a_00212
+Challenge: Limited Open Availability of Funding Data. Crossref’s funding data for COVID-19 research has limited coverage and quality issues, especially when compared to proprietary databases.
+    Impact: Incomplete funding data hinders normalization efforts by obscuring the financial context of research.
+DOI: 10.1371/journal.pbio.1002542
+Challenge: Differences in Publication Age, Document Type, and Database Coverage. Citation metrics vary based on factors like publication year, document type (e.g., reviews vs. research articles), and database inclusion.
+    Impact: Normalization must account for these factors to ensure accurate cross-field comparisons.</t>
+  </si>
+  <si>
+    <t>The main challenges in normalizing citation metrics across scientific fields include:
+Disciplinary Biases: Overrepresentation of certain fields in databases skews metrics.
+    Citation Culture Variations: Differences in citation practices and publication rates across fields.
+    Incompleteness of Metadata: Missing or inaccurate funding and contextual data distorts metrics.
+    Publication Factors: Variations in publication age, document type, and database coverage complicate comparisons.
+These challenges highlight the need for field-specific adjustments, comprehensive metadata, and standardized practices to ensure fair and accurate citation metric normalization.</t>
+  </si>
+  <si>
+    <t>DOI: 10.5281/ZENODO.13960973
+Method: Uses missing data patterns to detect errors in bibliographic datasets, specifically applied to affiliation metadata of publications associated with ETH Zurich.
+    Correction: Identifies incorrectly affiliated papers and proposes corrections based on the detected patterns.
+DOI: 10.1007/s11192-022-04367-w
+Method: Analyzes invalid citations due to DOI errors in Crossref data by identifying patterns of factual errors in invalid DOIs.
+    Correction: Proposes a DOI cleaning mechanism using regular expressions to automatically correct errors and improve citation integrity.
+DOI: 10.1007/s11192-023-04923-y
+Method: Investigates missing institutions in OpenAlex by defining three types of institutional information (full, partial, and completely missing) and analyzing their prevalence.
+    Correction: Suggests solutions to address missing institutions, emphasizing the need for data quality improvements in open resources.
+DOI: 10.31222/osf.io/smxe5
+Method: Analyzes the availability and improvements of metadata elements (e.g., reference lists, abstracts, ORCIDs) in Crossref over time.
+    Correction: Highlights the need for publishers to ensure full openness and accuracy of bibliographic metadata, though specific correction methods are not detailed.
+DOI: 10.1162/qss_a_00286
+Method: Compares metadata completeness in academic search engines and third-party databases, identifying gaps and inconsistencies.
+    Correction: Suggests integrating data from multiple sources and using natural language processing (NLP) to infer missing information, particularly in third-party databases.</t>
+  </si>
+  <si>
+    <t>Methods used to detect and correct errors in bibliographic datasets include:
+Pattern Analysis: Identifying errors through missing data patterns or DOI inconsistencies (DOIs: 10.5281/ZENODO.13960973, 10.1007/s11192-022-04367-w).
+Categorization of Missing Data: Defining types of missing information (e.g., institutional data) to target corrections (DOI: 10.1007/s11192-023-04923-y).
+Metadata Availability Tracking: Monitoring improvements in metadata elements over time to identify persistent gaps (DOI: 10.31222/osf.io/smxe5).
+Data Integration and NLP: Combining data from multiple sources and using NLP to infer missing information (DOI: 10.1162/qss_a_00286).
+These methods collectively aim to improve the accuracy, completeness, and reliability of bibliographic datasets, addressing both detection and correction of errors.</t>
+  </si>
+  <si>
+    <t>tell me about how RAG works.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/978-3-031-88708-6_3
+Investigates the role of relevance propagation from the retriever to the generator in RAG systems.
+    Explains how RAG maximizes utility by incorporating external knowledge into large language models (LLMs).
+DOI: 10.1609/aaai.v38i16.29728
+Systematically evaluates RAG’s impact on LLMs across fundamental abilities like noise robustness, negative rejection, and information integration.
+    Provides insights into how RAG synergizes retrieval and generation to mitigate hallucinations and improve accuracy.
+DOI: 10.48550/arXiv.2312.10997
+Offers a comprehensive review of RAG paradigms (Naive, Advanced, Modular).
+    Explains the tripartite foundation of RAG: retrieval, generation, and augmentation techniques, detailing how they work together.
+DOI: 10.48550/arXiv.2406.13213 
+Introduces Multi-Meta-RAG, a method that uses database filtering and LLM-extracted metadata to improve RAG for multi-hop queries.
+    Illustrates how RAG retrieves relevant documents and integrates them into the generation process for complex queries.
+DOI: 10.48550/arXiv.2505.18247
+Proposes MetaGen Blended RAG for specialized domain question answering.
+    Explains how RAG enhances semantic retrievers through metadata generation and hybrid query indexes, improving context precision in generation.</t>
+  </si>
+  <si>
+    <t>["10.1007/978-3-031-88708-6_3","10.1609/aaai.v38i16.29728","10.48550/arXiv.2312.10997","10.48550/arXiv.2406.13213","10.48550/arXiv.2505.18247"]</t>
+  </si>
+  <si>
+    <t>These papers explain RAG as a framework that:
+Retrieves relevant information from external sources.
+Generates responses by integrating retrieved information into LLMs.
+ Augments the process with techniques like metadata integration, database filtering, and hybrid indexing to improve accuracy, context precision, and handling of complex queries.</t>
   </si>
 </sst>
 </file>
@@ -160,13 +529,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,118 +868,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8EB78C-47DC-6D45-9388-270DC7642366}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="5" width="45.1640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="45.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="174.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="388" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="306" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="356" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="356" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/part_3_cohere/golden_set.xlsx
+++ b/part_3_cohere/golden_set.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6400A5-CBE1-F74D-BC6A-FB0BB9D527F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02A841-A529-8C40-B2CD-BD91CE2E1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="800" windowWidth="26200" windowHeight="17980" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
+    <workbookView xWindow="4660" yWindow="760" windowWidth="25060" windowHeight="17980" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>query</t>
   </si>
@@ -50,15 +50,9 @@
     <t>which studies examined citations?</t>
   </si>
   <si>
-    <t>Tell me about OpenAlex.</t>
-  </si>
-  <si>
     <t>Tell me about Crossref.</t>
   </si>
   <si>
-    <t>["10.1162/qss_a_00212","10.31274/b8136f97.ccc3dae4","10.31222/osf.io/smxe5","10.1007/s11192-022-04367-w","10.1162/qss_a_00022","10.1590/SciELOPreprints.11205","10.1162/qss_a_00286","10.1162/qss_a_00210","10.1162/qss_a_00112"]</t>
-  </si>
-  <si>
     <t>ground_truth</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
   </si>
   <si>
-    <t>["10.1162/qss_a_00210","10.1162/qss_a_00212","10.1162/qss_a_00286","10.31274/b8136f97.ccc3dae4","10.48550/arXiv.2401.16359"]</t>
-  </si>
-  <si>
-    <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
-  </si>
-  <si>
     <t>["10.1007/978-3-031-88708-6_3","10.1609/aaai.v38i16.29728","10.48550/arXiv.2312.10997","10.48550/arXiv.2402.11782","10.48550/arXiv.2406.13213"]</t>
   </si>
   <si>
@@ -104,28 +92,10 @@
     <t>How is RAG used to improve question answering or information retrieval systems?</t>
   </si>
   <si>
-    <t>["10.1007/978-3-031-88708-6_3","10.1109/ACCESS.2024.3395449","10.6109/jkiice.2023.27.12.1489","10.48550/arXiv.2406.13213","10.48550/arXiv.2505.18247"]</t>
-  </si>
-  <si>
     <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
   </si>
   <si>
-    <t>["10.1007/s11192-015-1765-5","10.1162/qss_a_00112","10.1162/qss_a_00210","10.1162/qss_a_00212","10.1371/journal.pbio.1002542"]</t>
-  </si>
-  <si>
     <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
-  </si>
-  <si>
-    <t>["10.5281/ZENODO.13960973","10.1007/s11192-022-04367-w","10.1007/s11192-023-04923-y","10.31222/osf.io/smxe5","10.1162/qss_a_00286"]</t>
-  </si>
-  <si>
-    <t>["10.3145/epi.2023.mar.09","10.1590/SciELOPreprints.11205","10.1007/s11192-023-04923-y","10.31274/b8136f97.ccc3dae4","10.48550/arXiv.2401.16359","10.48550/arXiv.2404.17663","10.48550/arXiv.2409.10633"]</t>
-  </si>
-  <si>
-    <t>["10.1007/s11192-022-04367-w","10.1371/journal.pbio.1002542","10.1007/s11192-015-1765-5","10.1162/qss_a_00112","10.1162/qss_a_00210"]</t>
-  </si>
-  <si>
-    <t>["10.1002/leap.1411","10.1007/s11192-020-03632-0","10.1162/qss_a_00286","10.1162/qss_a_00022","10.31222/osf.io/smxe5"]</t>
   </si>
   <si>
     <t>Lexical content changes in abstracts during the COVID-19 crisis.
@@ -138,9 +108,6 @@
 Normalization of citation metrics across scientific fields.
 Comparative analysis of citation links in bibliographic databases.
 Tracking funding information through citations and acknowledgments.</t>
-  </si>
-  <si>
-    <t>OpenAlex is presented as a promising open-source bibliometric database, offering broad coverage and accessibility. Studies highlight its strengths, such as preserving and improving upon MAG's data, achieving high indexing rates for journals, and providing balanced linguistic coverage. However, challenges include missing institutional metadata, limitations in funder metadata, and inaccuracies in language metadata. Comparisons with proprietary databases like Scopus and Web of Science show OpenAlex is a reliable alternative for some analyses, though further improvements in metadata quality and completeness are needed. Its role in fostering equitable indexing and supporting reproducible research is also emphasized.</t>
   </si>
   <si>
     <t>Crossref is portrayed as a major source of scholarly metadata, offering over 106 million records and playing a critical role in scientometrics, citation management, and open access to bibliographic data. Studies highlight its strengths, such as improving metadata availability over time and serving as a foundation for databases like OpenAlex. However, challenges include limitations in funding data coverage, DOI errors leading to invalid citations, and gaps in metadata completeness. Crossref is also compared favorably to academic search engines for metadata quality but is noted for its optional fields, which can result in missing information. Its role in scholarly infrastructure is underscored, though improvements are suggested for addressing representation and data accuracy issues.</t>
@@ -154,29 +121,11 @@
 </t>
   </si>
   <si>
-    <t>Assessing Availability: Highlighting gaps in funding metadata availability, particularly in Crossref (DOIs: 10.1162/qss_a_00210, 10.1162/qss_a_00212).
-    Comparing Databases: Contrasting funding metadata completeness and methods of capture in OpenAlex, Dimensions, and proprietary databases (DOIs: 10.31274/b8136f97.ccc3dae4, 10.1162/qss_a_00286).
-    Identifying Challenges: Noting issues like optional fields in DOI registration and reliance on publisher-provided data (DOI: 10.31274/b8136f97.ccc3dae4).
-    Recommending Improvements: Suggesting enhancements for open funding data availability and quality in Crossref (DOI: 10.1162/qss_a_00212).
-Together, these studies emphasize the need for standardized and comprehensive funding metadata in scholarly databases to improve transparency and traceability of research funding.</t>
-  </si>
-  <si>
     <t>Evaluation and Benchmarking: Diagnosing RAG’s impact on LLMs (DOI: 10.1609/aaai.v38i16.29728) and analyzing its components (DOI: 10.1007/978-3-031-88708-6_3).
     Methodological Advances: Proposing new methods like Multi-Meta-RAG for multi-hop queries (DOI: 10.48550/arXiv.2406.13213) and reviewing RAG paradigms (DOI: 10.48550/arXiv.2312.10997).
     Application Challenges: Highlighting issues in handling subjective queries (DOI: 10.48550/arXiv.2402.11782) and limitations in negative rejection and information integration (DOI: 10.1609/aaai.v38i16.29728).
     Corpus Quality: Emphasizing the need for high-quality RAG corpora to align with human judgments (DOI: 10.48550/arXiv.2402.11782).
 Together, these studies advance the understanding and application of RAG in LLMs, addressing both theoretical foundations and practical challenges.</t>
-  </si>
-  <si>
-    <t>Crossref plays a central role in the scholarly research ecosystem by:
-Providing Scholarly Metadata: Serving as a major source of community-owned metadata, including abstracts, funding information, and citation links.
-    Supporting Funders: Enabling tracking of research outputs through initiatives like FundRef, though with noted gaps in completeness.
-    Enhancing Data Quality: Improving metadata availability over time, though challenges remain in ensuring full openness and accuracy.
-    Facilitating Research: Supporting scientometrics, bibliometrics, and trend analysis in scholarly communications.
-These studies highlight Crossref’s critical role in fostering transparency, traceability, and accessibility in scholarly research, while also identifying areas for improvement in metadata completeness and quality.</t>
-  </si>
-  <si>
-    <t>Refernces:</t>
   </si>
   <si>
     <t>DOI: 10.1162/qss_a_00022
@@ -219,20 +168,6 @@
     Addresses traditional RAG’s poor performance in multi-hop question answering.</t>
   </si>
   <si>
-    <t>DOI: 10.1162/qss_a_00210 - Examines the availability and completeness of open funder metadata in Crossref, focusing on publications funded by the Dutch Research Council.
-    Finds only 67% of articles contain funding information, with variations among publishers and databases.
-    Highlights differences between open metadata in Crossref and proprietary databases like Web of Science, Scopus, and Dimensions.
-DOI: 10.1162/qss_a_00212 - Studies the open availability of funding data in Crossref for COVID-19 research, comparing it with Scopus and Web of Science.
-    Identifies limited coverage and quality issues in Crossref’s funding data, particularly in Scopus.
-    Offers recommendations for improving the open availability of funding data in Crossref.
-DOI: 10.1162/qss_a_00286 - Compares metadata completeness in academic search engines and third-party databases, including funding information.
-    Finds third-party databases (e.g., Dimensions, OpenAlex) have higher metadata quality, including funding data, compared to academic search engines.
-DOI: 10.31274/b8136f97.ccc3dae4 - Compares funder metadata in OpenAlex and Dimensions, noting OpenAlex relies on Crossref for metadata, while Dimensions uses natural language processing to infer funders.
-    Highlights the limitations of OpenAlex in capturing funder metadata due to optional fields in DOI registration.
-DOI: 10.48550/arXiv.2401.16359 - Analyzes metadata in OpenAlex, Web of Science, and Scopus, including funding information.
-    Finds OpenAlex captures fewer abstracts but includes a similar number of Open Access status indicators per article compared to proprietary databases.</t>
-  </si>
-  <si>
     <t>DOI: 10.1007/s11192-015-1765-5 - Compares the journal coverage of Web of Science (WoS) and Scopus, noting that English-language journals are overrepresented to the detriment of other languages.
     Highlights biases in these databases that favor Natural Sciences and Engineering, often at the expense of Social Sciences, Arts, and Humanities, which are more linguistically diverse.
 DOI: 10.48550/arXiv.2404.01985 - Investigates the open access coverage of OpenAlex, Scopus, and WoS, focusing on authorship and journal coverage by field, country, and language.
@@ -243,87 +178,6 @@
     Assesses precision and recall performance for each algorithm and corpus type, highlighting the potential of OpenAlex for cross-linguistic bibliometric research.
 DOI: 10.48550/arXiv.2505.18247 - Introduces 'MetaGen Blended RAG,' a method for enhancing semantic retrievers in enterprise search, particularly for specialized domains with multilingual and complex terminology.
     Demonstrates robust performance across datasets like PubMedQA, SQuAD, and NQ, though the focus is more on semantic variability than explicit linguistic coverage evaluation.</t>
-  </si>
-  <si>
-    <t>DOI: 10.1162/qss_a_00212 - Examines Crossref’s open availability of funding data for COVID-19 research, comparing it with Scopus and Web of Science.
-    Highlights limitations in Crossref’s funding data coverage and quality, suggesting areas for improvement.
-DOI: 10.31274/b8136f97.ccc3dae4 - Discusses Crossref’s role as a major building block for OpenAlex’s dataset, particularly for funder metadata.
-    Notes that Crossref’s optional funder metadata fields often result in missing information.
-DOI: 10.31222/osf.io/smxe5 - Analyzes the availability of metadata elements (e.g., reference lists, abstracts, ORCIDs) in Crossref over time.
-    Shows improvements in metadata availability but emphasizes the need for publishers to ensure full openness.
-DOI: 10.1007/s11192-022-04367-w - Identifies and corrects invalid citations due to DOI errors in Crossref data.
-    Highlights Crossref’s role in managing bibliographic metadata and the need for error correction mechanisms.
-DOI: 10.1162/qss_a_00022 - Describes Crossref as a sustainable source of community-owned scholarly metadata, with over 106 million records.
-    Details its metadata content types, APIs, and role in scientometrics, including citation data provision.
-DOI: 10.1590/SciELOPreprints.11205 - Highlights Crossref DOIs as central to achieving indexing in OpenAlex.
-    Notes Crossref’s role in scholarly infrastructure but points out underrepresentation of resource-limited journals.
-DOI: 10.1162/qss_a_00286 - Compares metadata completeness in Crossref with other databases, finding it has higher quality than academic search engines.
-    Emphasizes Crossref’s role in providing reliable descriptive data for scholarly publications.
-DOI: 10.1162/qss_a_00210 - Studies the availability and completeness of funder metadata in Crossref, focusing on the Dutch Research Council.
-    Finds only 67% of articles contain funding information, highlighting gaps in Crossref’s metadata.
-DOI: 10.1162/qss_a_00112 - Compares Crossref with other bibliographic data sources like Scopus and Web of Science.
-    Highlights Crossref’s comprehensive coverage of scholarly literature and its role in metadata provision.</t>
-  </si>
-  <si>
-    <t>DOI: 10.1007/s11192-022-04367-w
-Focuses on identifying and correcting invalid citations due to DOI errors in Crossref data.
-    Analyzes patterns of factual errors in invalid DOIs and proposes a cleaning mechanism for automatic correction.
-    Highlights the role of specific publishers in producing invalid citations and the need for error correction in bibliographic metadata.
-DOI: 10.1371/journal.pbio.1002542
-Discusses citation metrics and their normalization to account for differences across scientific fields, publication age, document type, and database coverage.
-    Examines challenges in combining citation metrics across multiple papers for appraising scientists, institutions, journals, or countries.
-    Emphasizes the need to carefully consider assumptions underlying citation metric calculations.
-DOI: 10.1007/s11192-015-1765-5
-Compares the journal coverage of Web of Science (WoS) and Scopus, including their completeness and accuracy of citation links.
-    Highlights biases in these databases favoring Natural Sciences and Engineering, often at the expense of Social Sciences and Humanities.
-    Notes overrepresentation of English-language journals and the impact on citation analysis.
-DOI: 10.1162/qss_a_00112
-Presents a large-scale comparison of five multidisciplinary bibliographic data sources, including Scopus, WoS, Dimensions, Crossref, and Microsoft Academic.
-    Analyzes differences in citation link completeness and accuracy across these databases.
-    Emphasizes the importance of combining comprehensive coverage with flexible filters for literature selection.
-DOI: 10.1162/qss_a_00210
-Examines the availability and completeness of funding metadata in Crossref, including funding acknowledgments in citations.
-    Finds only 67% of articles funded by the Dutch Research Council contain funding information, highlighting gaps in metadata completeness.</t>
-  </si>
-  <si>
-    <t>DOI: 10.3145/epi.2023.mar.09
-Compares OpenAlex with Microsoft Academic Graph (MAG) in terms of bibliometric metadata, highlighting that OpenAlex preserves MAG's data and improves subject classification assignments.
-    Suggests OpenAlex is at least as suited for bibliometric analyses as MAG, especially for publication years before 2021.
-DOI: 10.1590/SciELOPreprints.11205
-Analyzes OpenAlex’s indexing of journals using Open Journal Systems (OJS), finding that 71% of active OJS journals are indexed in OpenAlex.
-    Highlights the role of Crossref DOIs in achieving indexing but notes underrepresentation of resource-limited and non-English journals.
-DOI: 10.1007/s11192-023-04923-y
-Investigates the issue of missing institutions in OpenAlex’s journal article metadata, particularly in early years and in social sciences and humanities.
-    Emphasizes the need for data quality improvements in open resources like OpenAlex.
-DOI: 10.31274/b8136f97.ccc3dae4
-Compares funder metadata in OpenAlex and Dimensions, noting that OpenAlex relies heavily on Crossref for metadata, while Dimensions uses natural language processing to infer funders.
-    Highlights OpenAlex’s limitations in capturing funder metadata due to optional fields in DOI registration.
-DOI: 10.48550/arXiv.2401.16359
-Compares reference coverage and metadata in OpenAlex, Web of Science, and Scopus, finding OpenAlex has comparable internal coverage and source reference numbers.
-    Notes OpenAlex captures more ORCID identifiers but fewer abstracts compared to proprietary databases.
-DOI: 10.48550/arXiv.2404.17663
-Assesses OpenAlex’s suitability for bibliometric analyses, concluding it is a superset of Scopus and a reliable alternative for some analyses, particularly at the country level.
-    Highlights issues with metadata accuracy and completeness that require further research.
-DOI: 10.48550/arXiv.2409.10633
-Evaluates OpenAlex’s linguistic coverage, finding it more balanced than Web of Science but with inaccuracies in language metadata.
-    Suggests OpenAlex can provide comprehensive analyses if used critically, but infrastructural improvements are needed for metadata quality.</t>
-  </si>
-  <si>
-    <t>DOI: 10.1002/leap.1411
-Investigates lexical content changes in abstracts of preprints during the COVID-19 crisis.
-    Analyzes the increase in positive words (e.g., "effective") and hedge words (e.g., "can," "may") in abstracts, reflecting a balance between over-promotion and caution.
-DOI: 10.1007/s11192-020-03632-0
-Examines characteristics of abstracts in scientific articles published during the first 3 months of the COVID-19 pandemic, comparing them with H1N1 articles.
-    Finds a higher prevalence of reviews and guidance articles in COVID-19 abstracts, with fewer in vitro and animal research studies compared to H1N1.
-DOI: 10.1162/qss_a_00286
-Compares metadata completeness in academic search engines and third-party databases, including the presence of abstracts.
-    Finds third-party databases (e.g., Dimensions, OpenAlex) have higher abstract completeness rates compared to academic search engines.
-DOI: 10.1162/qss_a_00022
-Describes Crossref’s role in providing scholarly metadata, including abstracts, as part of its over 106 million records.
-    Highlights the inclusion of abstracts in Crossref’s metadata set, which supports research in scientometrics and scholarly communications.
-DOI: 10.31222/osf.io/smxe5
-Analyzes the availability of metadata elements in Crossref, including abstracts, over time.
-    Shows improvements in abstract availability for journal articles but notes the need for publishers to ensure full openness of metadata.</t>
   </si>
   <si>
     <t>OpenAlex is highlighted as a promising open-source bibliometric database with the following key features:
@@ -382,82 +236,6 @@
 These studies highlight WoS as a robust but biased tool</t>
   </si>
   <si>
-    <t>DOI: 10.1007/978-3-031-88708-6_3
-Application: Investigates the role of relevance in RAG systems, focusing on the relationship between retriever and generator.
-    Improvement: Highlights the importance of effective retrieval models for better downstream RAG performance, as relevance correlates with utility in question answering.
-DOI: 10.1109/ACCESS.2024.3395449
-Application: Proposes a method to enhance question retrieval in community question answering (CQA) using metadata and transformer-based techniques.
-    Improvement: Leverages metadata and RAG to overcome lexical gaps in retrieval systems, achieving state-of-the-art performance in question retrieval.
-DOI: 10.6109/jkiice.2023.27.12.1489
-Application: Introduces Metadata Retrieval-Augmented Generation (M-RAG) for open-domain question answering (ODQA).
-    Improvement: Uses embeddings with metadata and generative models like GPT-3.5/4 to understand query context, enhancing answer accuracy and source attribution capabilities.
-DOI: 10.48550/arXiv.2406.13213
-Application: Proposes Multi-Meta-RAG to improve RAG for multi-hop queries using database filtering and LLM-extracted metadata.
-    Improvement: Enhances RAG’s ability to retrieve and reason over multiple elements of supporting evidence, significantly improving results on the MultiHop-RAG benchmark.
-DOI: 10.48550/arXiv.2505.18247
-Application: Introduces MetaGen Blended RAG for specialized domain question answering, particularly in enterprise datasets.
-    Improvement: Enhances semantic retrievers through metadata generation and hybrid query indexes, achieving high retrieval and RAG accuracy without fine-tuning, even in specialized domains.</t>
-  </si>
-  <si>
-    <t>RAG is used to improve question answering and information retrieval systems by:
-   Enhancing Relevance: Improving the correlation between retriever and generator for better utility (DOI: 10.1007/978-3-031-88708-6_3).
-    Overcoming Lexical Gaps: Leveraging metadata to address discrepancies in terminologies (DOI: 10.1109/ACCESS.2024.3395449).
-    Incorporating Context: Using metadata to understand query context and improve answer accuracy (DOI: 10.6109/jkiice.2023.27.12.1489).
-    Handling Multi-Hop Queries: Improving retrieval and reasoning over multiple evidence elements (DOI: 10.48550/arXiv.2406.13213).
-    Specialized Domain Performance: Achieving high accuracy in enterprise datasets without fine-tuning (DOI: 10.48550/arXiv.2505.18247).
-These studies demonstrate RAG’s versatility in addressing various challenges in question answering and information retrieval, from lexical gaps to complex multi-hop queries and specialized domains.</t>
-  </si>
-  <si>
-    <t>DOI: 10.1007/s11192-015-1765-5
-Challenge: Biases in Database Coverage. Databases like Web of Science (WoS) and Scopus overrepresent Natural Sciences and Engineering, underrepresenting Social Sciences, Arts, and Humanities. This skews citation metrics in favor of certain fields.
-    Impact: Normalization efforts must account for these disciplinary biases to ensure fairness across fields.
-DOI: 10.1162/qss_a_00112
-Challenge: Variability in Citation Practices. Different fields have distinct citation cultures and publication rates, making direct comparisons of raw citation counts misleading.
-    Impact: Normalization requires field-specific adjustments to account for these variations.
-DOI: 10.1162/qss_a_00210
-Challenge: Incompleteness of Funding Metadata. Only 67% of articles funded by the Dutch Research Council contain funding information in Crossref, leading to incomplete citation context.
-    Impact: Inaccurate or missing funding data can distort citation metrics, particularly in interdisciplinary research.
-DOI: 10.1162/qss_a_00212
-Challenge: Limited Open Availability of Funding Data. Crossref’s funding data for COVID-19 research has limited coverage and quality issues, especially when compared to proprietary databases.
-    Impact: Incomplete funding data hinders normalization efforts by obscuring the financial context of research.
-DOI: 10.1371/journal.pbio.1002542
-Challenge: Differences in Publication Age, Document Type, and Database Coverage. Citation metrics vary based on factors like publication year, document type (e.g., reviews vs. research articles), and database inclusion.
-    Impact: Normalization must account for these factors to ensure accurate cross-field comparisons.</t>
-  </si>
-  <si>
-    <t>The main challenges in normalizing citation metrics across scientific fields include:
-Disciplinary Biases: Overrepresentation of certain fields in databases skews metrics.
-    Citation Culture Variations: Differences in citation practices and publication rates across fields.
-    Incompleteness of Metadata: Missing or inaccurate funding and contextual data distorts metrics.
-    Publication Factors: Variations in publication age, document type, and database coverage complicate comparisons.
-These challenges highlight the need for field-specific adjustments, comprehensive metadata, and standardized practices to ensure fair and accurate citation metric normalization.</t>
-  </si>
-  <si>
-    <t>DOI: 10.5281/ZENODO.13960973
-Method: Uses missing data patterns to detect errors in bibliographic datasets, specifically applied to affiliation metadata of publications associated with ETH Zurich.
-    Correction: Identifies incorrectly affiliated papers and proposes corrections based on the detected patterns.
-DOI: 10.1007/s11192-022-04367-w
-Method: Analyzes invalid citations due to DOI errors in Crossref data by identifying patterns of factual errors in invalid DOIs.
-    Correction: Proposes a DOI cleaning mechanism using regular expressions to automatically correct errors and improve citation integrity.
-DOI: 10.1007/s11192-023-04923-y
-Method: Investigates missing institutions in OpenAlex by defining three types of institutional information (full, partial, and completely missing) and analyzing their prevalence.
-    Correction: Suggests solutions to address missing institutions, emphasizing the need for data quality improvements in open resources.
-DOI: 10.31222/osf.io/smxe5
-Method: Analyzes the availability and improvements of metadata elements (e.g., reference lists, abstracts, ORCIDs) in Crossref over time.
-    Correction: Highlights the need for publishers to ensure full openness and accuracy of bibliographic metadata, though specific correction methods are not detailed.
-DOI: 10.1162/qss_a_00286
-Method: Compares metadata completeness in academic search engines and third-party databases, identifying gaps and inconsistencies.
-    Correction: Suggests integrating data from multiple sources and using natural language processing (NLP) to infer missing information, particularly in third-party databases.</t>
-  </si>
-  <si>
-    <t>Methods used to detect and correct errors in bibliographic datasets include:
-Pattern Analysis: Identifying errors through missing data patterns or DOI inconsistencies (DOIs: 10.5281/ZENODO.13960973, 10.1007/s11192-022-04367-w).
-Categorization of Missing Data: Defining types of missing information (e.g., institutional data) to target corrections (DOI: 10.1007/s11192-023-04923-y).
-Metadata Availability Tracking: Monitoring improvements in metadata elements over time to identify persistent gaps (DOI: 10.31222/osf.io/smxe5).
-Data Integration and NLP: Combining data from multiple sources and using NLP to infer missing information (DOI: 10.1162/qss_a_00286).
-These methods collectively aim to improve the accuracy, completeness, and reliability of bibliographic datasets, addressing both detection and correction of errors.</t>
-  </si>
-  <si>
     <t>tell me about how RAG works.</t>
   </si>
   <si>
@@ -478,13 +256,370 @@
     Explains how RAG enhances semantic retrievers through metadata generation and hybrid query indexes, improving context precision in generation.</t>
   </si>
   <si>
-    <t>["10.1007/978-3-031-88708-6_3","10.1609/aaai.v38i16.29728","10.48550/arXiv.2312.10997","10.48550/arXiv.2406.13213","10.48550/arXiv.2505.18247"]</t>
-  </si>
-  <si>
-    <t>These papers explain RAG as a framework that:
-Retrieves relevant information from external sources.
-Generates responses by integrating retrieved information into LLMs.
- Augments the process with techniques like metadata integration, database filtering, and hybrid indexing to improve accuracy, context precision, and handling of complex queries.</t>
+    <t>LLM_verify</t>
+  </si>
+  <si>
+    <t>Human_verify</t>
+  </si>
+  <si>
+    <t>What are the key challenges and advancements in Retrieval-Augmented Generation (RAG) systems?</t>
+  </si>
+  <si>
+    <t>What are the key challenges and potential solutions for improving metadata quality?</t>
+  </si>
+  <si>
+    <t>What are the key challenges and advancements in metadata quality assessment?</t>
+  </si>
+  <si>
+    <t>['10.29173/cais1943', '10.1162/qss_a_00286', '10.48550/arXiv.2404.17663', '10.1162/qss_a_00211', '10.1007/s11192-020-03647-7']</t>
+  </si>
+  <si>
+    <t>1. **DOI: 10.29173/cais1943**  
+   - Highlights discrepancies in document type classification between OpenAlex and WoS, with over 4% misclassification, mostly in OpenAlex.  
+   - Emphasizes metadata quality issues affecting bibliometric research.
+2. **DOI: 10.48550/arXiv.2404.17663**  
+   - Compares OpenAlex and Scopus, noting metadata accuracy and completeness issues in OpenAlex.  
+   - Discusses the need for further research to address limitations for broader bibliometric use.
+3. **DOI: 10.1162/qss_a_00286**  
+   - Evaluates metadata completeness in eight free-access scholarly databases.  
+   - Finds third-party databases (e.g., OpenAlex) have better metadata quality than academic search engines.
+4. **DOI: 10.1162/qss_a_00211**  
+   - Assesses data quality for measuring international research collaboration.  
+   - Highlights differences in quality across bibliographic data sources like WoS, Dimensions, and Crossref.
+5. **DOI: 10.1007/s11192-020-03647-7**  
+   - Explores sample size requirements for reliable bibliometric domain analysis.  
+   - Discusses the impact of dataset size on analysis reliability and result ranking.</t>
+  </si>
+  <si>
+    <t>Question: Yes.
+**Reason:** The provided answer accurately summarizes key challenges and advancements in metadata quality assessment based on the evidence from the documents. Here’s a breakdown of how the answer aligns with the evidence:
+1. **DOI: 10.29173/cais1943**  
+   - **Challenge:** Highlights discrepancies in document type classification between OpenAlex and WoS, with over 4% misclassification, mostly in OpenAlex.  
+   - **Advancement:** Emphasizes metadata quality issues affecting bibliometric research, which is a key challenge addressed in metadata quality assessment.
+2. **DOI: 10.48550/arXiv.2404.17663**  
+   - **Challenge:** Compares OpenAlex and Scopus, noting metadata accuracy and completeness issues in OpenAlex.  
+   - **Advancement:** Discusses the need for further research to address limitations for broader bibliometric use, indicating an area for advancement.
+3. **DOI: 10.1162/qss_a_00286**  
+   - **Challenge:** Evaluates metadata completeness in eight free-access scholarly databases.  
+   - **Advancement:** Finds third-party databases (e.g., OpenAlex) have better metadata quality than academic search engines, highlighting advancements in metadata quality in certain databases.
+4. **DOI: 10.1162/qss_a_00211**  
+   - **Challenge:** Assesses data quality for measuring international research collaboration.  
+   - **Advancement:** Highlights differences in quality across bibliographic data sources like WoS, Dimensions, and Crossref, emphasizing the need for quality assessment across different sources.
+5. **DOI: 10.1007/s11192-020-03647-7**  
+   - **Challenge:** Explores sample size requirements for reliable bibliometric domain analysis.  
+   - **Advancement:** Discusses the impact of dataset size on analysis reliability and result ranking, which is relevant to metadata quality assessment in large datasets.
+The answer correctly identifies and summarizes these challenges and advancements, making it a valid and evidence-based response.
+True Positives by DOI: ['10.1007/s11192-020-03647-7', '10.1007/s11192-025-05335-w', '10.29173/cais1943', '10.48550/arXiv.2404.17663', '10.1162/qss_a_00286']
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Refernces</t>
+  </si>
+  <si>
+    <t>['10.5860/crl.86.1.101', '10.1177/09610006241239080', '10.1080/19386389.2011.570654', '10.48550/arXiv.2303.17661', '10.1109/ADL.1998.670425']</t>
+  </si>
+  <si>
+    <t>Question: **DOI: 10.5860/crl.86.1.101**  
+**Correctness:** Yes  
+**Summary:** This study explores metadata quality issues across cultures, identifying 32 unique issues classified into 5 categories. It highlights tensions between sociocultural representations, resource constraints, and standardized systems, emphasizing the need for interventions to improve metadata quality and consistency.  
+**DOI: 10.1177/09610006241239080**  
+**Correctness:** Yes  
+**Summary:** This scoping review identifies key dimensions of metadata quality (completeness, accuracy, consistency, etc.) and emphasizes the lack of consensus on their definitions and measurements. It calls for further research and improved assessment tools to enhance metadata quality assurance.  
+**DOI: 10.1080/19386389.2011.570654**  
+**Correctness:** Yes  
+**Summary:** This paper analyzes problems in metadata records, categorizing them into five types (incorrect values, incorrect elements, missing information, information loss, and inconsistent representation). It highlights the need for preventive and corrective measures to ensure metadata quality.  
+**DOI: 10.48550/arXiv.2303.17661**  
+**Correctness:** Yes  
+**Summary:** This work introduces MetaEnhance, a framework using AI to detect, correct, and canonicalize metadata in electronic theses and dissertations. It achieves high F1-scores in error detection and correction, demonstrating a solution for improving metadata quality.  
+**DOI: 10.1109/ADL.1998.670425**  
+**Correctness:** Yes  
+**Summary:** This study assesses metadata quality in the US Government Information Locator Service (GILS), developing criteria and procedures for evaluation. It highlights the need for diverse methods to assess different types of metadata and contributes to the dialog on metadata quality assessment.  
+**Conclusion:** All provided DOIs are correct and relevant to the question about key challenges and potential solutions for improving metadata quality. Each DOI addresses specific aspects of metadata quality, such as assessment, error analysis, and automated improvement methods.
+True Positives by DOI: ['10.5860/crl.86.1.101', '10.1109/ADL.1998.670425', '10.48550/arXiv.2303.17661', '10.1177/09610006241239080', '10.1080/19386389.2011.570654']
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['10.48550/arXiv.2312.10997', '10.48550/arXiv.2505.13557', '10.1007/s44427-025-00006-3', '10.48550/arXiv.2505.18247', '10.18653/v1/2024.eacl-demo.16']</t>
+  </si>
+  <si>
+    <t>Question: Here is the evaluation of the provided DOIs based on the question about key challenges and advancements in Retrieval-Augmented Generation (RAG) systems:
+1. **DOI: 10.1007/s44427-025-00006-3**  
+   **Answer:** Yes  
+   **Summary:** This study evaluates open-source LLMs in RAG systems using a benchmark dataset derived from diploma theses abstracts. It assesses retrieval effectiveness and answer quality, highlighting strengths and weaknesses of different models and strategies.
+2. **DOI: 10.48550/arXiv.2505.18247**  
+   **Answer:** Yes  
+   **Summary:** Introduces 'MetaGen Blended RAG', a novel approach to enhance semantic retrievers for specialized domains by generating metadata-enriched indexes and hybrid queries, achieving high zero-shot precision without fine-tuning.
+3. **DOI: 10.48550/arXiv.2505.13557**  
+   **Answer:** Yes  
+   **Summary:** Presents AMAQA, a metadata-based QA dataset for RAG systems, addressing the lack of metadata integration in benchmarks. It demonstrates the value of metadata in improving accuracy and contextualized queries.
+4. **DOI: 10.18653/v1/2024.eacl-demo.16**  
+   **Answer:** Yes  
+   **Summary:** Introduces RAGAs, a reference-free evaluation framework for RAG pipelines, focusing on retrieval, generation, and overall system performance without relying on human annotations.
+5. **DOI: 10.48550/arXiv.2312.10997**  
+   **Answer:** Yes  
+   **Summary:** Provides a comprehensive survey of RAG systems, covering Naive, Advanced, and Modular RAG paradigms, and discusses challenges and future directions in the field.
+True Positives by DOI: ['10.6109/jkiice.2023.27.12.1489', '10.48550/arXiv.2505.13557', '10.1007/s44427-025-00006-3', '10.48550/arXiv.2505.18247', '10.18653/v1/2024.eacl-demo.16']
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Question: Here is the evaluation of the provided DOIs based on the question about key challenges and advancements in Retrieval-Augmented Generation (RAG) systems:
+1. **DOI: 10.1007/s44427-025-00006-3**  
+   **Answer:** Yes  
+   **Summary:** This study evaluates open-source LLMs in RAG systems using a benchmark dataset derived from diploma theses abstracts. It assesses retrieval effectiveness and answer quality, highlighting strengths and weaknesses of different models and strategies.
+2. **DOI: 10.48550/arXiv.2505.18247**  
+   **Answer:** Yes  
+   **Summary:** Introduces 'MetaGen Blended RAG', a novel approach to enhance semantic retrievers for specialized domains by generating metadata-enriched indexes and hybrid queries, achieving high zero-shot precision without fine-tuning.
+3. **DOI: 10.48550/arXiv.2505.13557**  
+   **Answer:** Yes  
+   **Summary:** Presents AMAQA, a metadata-based QA dataset for RAG systems, addressing the lack of metadata integration in benchmarks. It demonstrates the value of metadata in improving accuracy and contextualized queries.
+4. **DOI: 10.18653/v1/2024.eacl-demo.16**  
+   **Answer:** Yes  
+   **Summary:** Introduces RAGAs, a reference-free evaluation framework for RAG pipelines, focusing on retrieval, generation, and overall system performance without relying on human annotations.
+5. **DOI: 10.48550/arXiv.2312.10997**  
+   **Answer:** Yes  
+   **Summary:** Provides a comprehensive survey of RAG systems, covering Naive, Advanced, and Modular RAG paradigms, and discusses challenges and future directions in the field.
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Question: **Evaluation of the provided DOIs for the question "Tell me about how RAG works":**
+1. **10.1007/978-3-031-88708-6_3**  
+   - **Relevance**: Yes  
+   - **Summary**: This DOI discusses the propagation of relevance from retriever to generator in RAG systems, focusing on how retrieved information influences the generation process.  
+2. **10.1609/aaai.v38i16.29728**  
+   - **Relevance**: Yes  
+   - **Summary**: This paper benchmarks large language models in RAG, evaluating their performance in noise robustness, negative rejection, information integration, and counterfactual robustness.  
+3. **10.48550/arXiv.2312.10997**  
+   - **Relevance**: Yes  
+   - **Summary**: This survey provides a comprehensive overview of RAG, detailing its tripartite foundation (retrieval, generation, augmentation), state-of-the-art technologies, and challenges.  
+4. **10.48550/arXiv.2406.13213**  
+   - **Relevance**: Yes  
+   - **Summary**: This paper introduces Multi-Meta-RAG, a method that improves RAG for multi-hop queries by using database filtering with LLM-extracted metadata.  
+5. **10.48550/arXiv.2505.18247**  
+   - **Relevance**: Yes  
+   - **Summary**: This work presents MetaGen Blended RAG, a novel approach that enhances semantic retrievers using metadata generation and hybrid query indexes for specialized domain question-answering.  
+**Conclusion**: All provided DOIs are relevant and correctly address the question about how RAG works, offering insights into its mechanisms, applications, and advancements.  
+**Answer**: Yes.
+True Positives by DOI:
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['10.48550/arXiv.2406.13213', '10.1007/978-3-031-88708-6_3', '10.48550/arXiv.2505.18247', '10.1609/aaai.v38i16.29728', '10.48550/arXiv.2312.10997']</t>
+  </si>
+  <si>
+    <t>Question: **Evaluation of the provided DOIs for the question "What methods are used to detect and correct errors in bibliographic datasets?"**
+Here’s the evaluation of each DOI based on the provided documents, with a brief summary and correctness assessment:
+1. **DOI: 10.1007/s11192-022-04367-w**  
+   - **Summary**: Focuses on identifying and correcting invalid citations due to DOI errors in Crossref data. It uses regular expressions and automated processes to detect and fix errors.  
+   - **Correctness**: Yes. Directly addresses methods for detecting and correcting errors in bibliographic datasets.  
+2. **DOI: 10.1007/s11192-023-04923-y**  
+   - **Summary**: Investigates missing institutions in OpenAlex and proposes solutions to improve metadata quality.  
+   - **Correctness**: Yes. Discusses methods to detect and correct metadata errors in bibliographic datasets.  
+3. **DOI: 10.31222/osf.io/smxe5**  
+   - **Summary**: Analyzes the availability of metadata elements in Crossref and highlights the need for publishers to improve metadata openness.  
+   - **Correctness**: Yes. Addresses metadata quality issues and methods to enhance completeness.  
+4. **DOI: 10.1162/qss_a_00286**  
+   - **Summary**: Compares the completeness of publication metadata in eight free-access scholarly databases.  
+   - **Correctness**: Yes. Evaluates metadata completeness and identifies issues in bibliographic datasets.  
+**Recommendation for Additional Document**:  
+Since there are only four documents, I recommend including **DOI: 10.1080/19386389.2011.570654**, which analyzes problems in metadata records and categorizes them, providing insights into error detection and correction methods.  
+**Final Answer**:  
+Yes, the provided DOIs are correct and relevant to the question. They cover methods for detecting and correcting errors in bibliographic datasets, including DOI errors, missing metadata, and metadata completeness issues.
+True Positives by DOI: ['10.1080/19386389.2011.570654', '10.1007/s11192-022-04367-w', '10.1162/qss_a_00286', '10.1007/s11192-023-04923-y', '10.31222/osf.io/smxe5']
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>['10.1080/19386389.2011.570654', '10.1007/s11192-022-04367-w', '10.1162/qss_a_00286', '10.1007/s11192-023-04923-y', '10.31222/osf.io/smxe5']</t>
+  </si>
+  <si>
+    <t>Methods used to detect and correct errors in bibliographic datasets include:
+Pattern Analysis: Identifying errors through missing data patterns or DOI inconsistencies (10.1080/19386389.2011.570654, 10.1007/s11192-022-04367-w).
+Categorization of Missing Data: Defining types of missing information (e.g., institutional data) to target corrections (DOI: 10.1007/s11192-023-04923-y).
+Metadata Availability Tracking: Monitoring improvements in metadata elements over time to identify persistent gaps (DOI: 10.31222/osf.io/smxe5).
+Data Integration and NLP: Combining data from multiple sources and using NLP to infer missing information (DOI: 10.1162/qss_a_00286).
+These methods collectively aim to improve the accuracy, completeness, and reliability of bibliographic datasets, addressing both detection and correction of errors.</t>
+  </si>
+  <si>
+    <t>The main challenges in normalizing citation metrics across scientific fields include:
+Disciplinary Biases: Overrepresentation of certain fields in databases skews metrics.
+Citation Culture Variations: Differences in citation practices and publication rates across fields.
+Incompleteness of Metadata: Missing or inaccurate funding and contextual data distorts metrics.
+Publication Factors: Variations in publication age, document type, and database coverage complicate comparisons.
+These challenges highlight the need for field-specific adjustments, comprehensive metadata, and standardized practices to ensure fair and accurate citation metric normalization.</t>
+  </si>
+  <si>
+    <t>['10.1162/qss_a_00211', '10.1007/s11192-022-04289-7', '10.1162/qss_a_00112', '10.1007/s11192-015-1765-5', '10.1162/qss_a_00210']</t>
+  </si>
+  <si>
+    <t>Question: **Evaluation of DOIs for the Question: What are the main challenges in normalizing citation metrics across scientific fields?**
+Here’s the evaluation of the provided DOIs based on their relevance to the question. The list includes a brief summary of each DOI and whether it directly addresses the question. Since there are already 5 DOIs, no additional recommendation is needed.
+**1. DOI: 10.1007/s11192-022-04289-7**  
+**Summary:** Compares disciplinary coverage of 56 bibliographic databases, highlighting differences in subject coverage across databases like Google Scholar, Scopus, and Web of Science.  
+**Relevance:** Yes. Addresses challenges in normalizing citation metrics by discussing biases in database coverage across disciplines.  
+**2. DOI: 10.1007/s11192-015-1765-5**  
+**Summary:** Analyzes journal coverage in Web of Science and Scopus, showing biases favoring Natural Sciences and English-language journals.  
+**Relevance:** Yes. Highlights biases in citation metrics due to database coverage disparities across fields and languages.  
+**3. DOI: 10.1162/qss_a_00112**  
+**Summary:** Compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) in terms of coverage, citation completeness, and accuracy.  
+**Relevance:** Yes. Discusses challenges in normalizing metrics due to differences in data source quality and coverage.  
+**4. DOI: 10.1162/qss_a_00210**  
+**Summary:** Examines the availability and completeness of open funder metadata in Crossref, Scopus, and Web of Science.  
+**Relevance:** Partially. Focuses on metadata quality but not directly on citation metric normalization across fields.  
+**5. DOI: 10.1162/qss_a_00211**  
+**Summary:** Assesses the quality of bibliographic data sources for measuring international research collaboration.  
+**Relevance:** Partially. Focuses on collaboration measurement rather than citation metric normalization across fields.  
+**Conclusion:**  
+The
+True Positives by DOI: ['10.1162/qss_a_00211', '10.1007/s11192-022-04289-7', '10.1162/qss_a_00112', '10.1007/s11192-015-1765-5', '10.1162/qss_a_00210']
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>["10.48550/arXiv.2402.01788","10.48550/arXiv.2505.18247","10.48550/arXiv.2406.13213","10.6109/jkiice.2023.27.12.1489","10.1109/ACCESS.2024.3395449"]</t>
+  </si>
+  <si>
+    <t>RAG is used to improve question answering and information retrieval systems by:
+   Address limitations: This paper introduces LitLLM, a toolkit for scientific literature review that uses Retrieval-Augmented Generation (RAG) to address limitations like hallucination and outdated knowledge in LLMs. It retrieves relevant papers, re-ranks them, and generates reviews, significantly reducing time and effort compared to traditional methods.(DOI:10.48550/arXiv.2402.01788)
+    Overcoming Lexical Gaps: Leveraging metadata to address discrepancies in terminologies (DOI: 10.1109/ACCESS.2024.3395449).
+    Incorporating Context: Using metadata to understand query context and improve answer accuracy (DOI: 10.6109/jkiice.2023.27.12.1489).
+    Handling Multi-Hop Queries: Improving retrieval and reasoning over multiple evidence elements (DOI: 10.48550/arXiv.2406.13213).
+    Specialized Domain Performance: Achieving high accuracy in enterprise datasets without fine-tuning (DOI: 10.48550/arXiv.2505.18247).
+These studies demonstrate RAG’s versatility in addressing various challenges in question answering and information retrieval, from lexical gaps to complex multi-hop queries and specialized domains.</t>
+  </si>
+  <si>
+    <t>Question: **Evaluation of DOIs for Correctness:**
+**Question:** How is RAG used to improve question answering or information retrieval systems?
+**Provided DOIs:**
+1. **10.48550/arXiv.2402.01788**  
+   - **Correctness:** Yes  
+   - **Summary:** This paper introduces LitLLM, a toolkit for scientific literature review that uses Retrieval-Augmented Generation (RAG) to address limitations like hallucination and outdated knowledge in LLMs. It retrieves relevant papers, re-ranks them, and generates reviews, significantly reducing time and effort compared to traditional methods.  
+2. **10.48550/arXiv.2505.18247**  
+   - **Correctness:** Yes  
+   - **Summary:** Introduces MetaGen Blended RAG, a method to enhance semantic retrievers for specialized domains by generating metadata-enriched indexes and hybrid queries. It achieves high accuracy in biomedical datasets, outperforming zero-shot RAG benchmarks and rivaling fine-tuned models.  
+3. **10.48550/arXiv.2406.13213**  
+   - **Correctness:** Yes  
+   - **Summary:** Proposes Multi-Meta-RAG, a method that uses LLM-extracted metadata and database filtering to improve RAG for multi-hop queries. It significantly enhances performance on the MultiHop-RAG benchmark by retrieving relevant documents more effectively.  
+4. **10.6109/jkiice.2023.27.12.1489**  
+   - **Correctness:** Yes  
+   - **Summary:** Introduces M-RAG, a method that uses metadata retrieval-augmented generation to enhance open-domain question answering. It leverages embeddings, metadata, and generative models to improve accuracy and context understanding, achieving up to 46% performance improvement over traditional methods.  
+5. **10.1109/ACCESS.2024.3395449**  
+   - **Correctness:** Yes  
+   - **Summary:** This paper uses RAG to improve question retrieval in community question answering (CQA) systems by leveraging metadata and transformer-based techniques. It addresses the lexical gap problem and achieves a 51.47
+True Positives by DOI: ['10.1109/ACCESS.2024.3395449', '10.48550/arXiv.2402.01788', '10.48550/arXiv.2406.13213', '10.48550/arXiv.2505.18247', '10.6109/jkiice.2023.27.12.1489']
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Crossref plays a central role in the scholarly research ecosystem by:
+Providing Scholarly Metadata: Serving as a major source of community-owned metadata, including abstracts, funding information, and citation links.
+Supporting Funders: Enabling tracking of research outputs through initiatives like FundRef, though with noted gaps in completeness.
+Enhancing Data Quality: Improving metadata availability over time, though challenges remain in ensuring full openness and accuracy.
+Facilitating Research: Supporting scientometrics, bibliometrics, and trend analysis in scholarly communications.
+These studies highlight Crossref’s critical role in fostering transparency, traceability, and accessibility in scholarly research, while also identifying areas for improvement in metadata completeness and quality.</t>
+  </si>
+  <si>
+    <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) when used in applications?</t>
+  </si>
+  <si>
+    <t>["10.1162/qss_a_00210","10.1162/qss_a_00212","10.31274/b8136f97.ccc3dae4","10.31222/osf.io/smxe5","10.5281/zenodo.14006424"]</t>
+  </si>
+  <si>
+    <t>Assessing Availability: Highlighting gaps in funding metadata availability, particularly in Crossref (DOIs: 10.1162/qss_a_00210, 10.1162/qss_a_00212).
+    Comparing Databases: Contrasting funding metadata completeness and methods of capture in OpenAlex, Dimensions, and proprietary databases (DOIs: 10.31274/b8136f97.ccc3dae4, 10.5281/zenodo.14006424 ).
+    Identifying Challenges: Noting issues like optional fields in DOI registration and reliance on publisher-provided data (DOI: 10.31274/b8136f97.ccc3dae4).
+    Recommending Improvements: Suggesting enhancements for open funding data availability and quality in Crossref (DOI: 10.1162/qss_a_00212).
+Together, these studies emphasize the need for standardized and comprehensive funding metadata in scholarly databases to improve transparency and traceability of research funding.</t>
+  </si>
+  <si>
+    <t>DOI: 10.1162/qss_a_00210 - Examines the availability and completeness of open funder metadata in Crossref, focusing on publications funded by the Dutch Research Council.
+    Finds only 67% of articles contain funding information, with variations among publishers and databases.
+    Highlights differences between open metadata in Crossref and proprietary databases like Web of Science, Scopus, and Dimensions.
+DOI: 10.1162/qss_a_00212 - Studies the open availability of funding data in Crossref for COVID-19 research, comparing it with Scopus and Web of Science.
+    Identifies limited coverage and quality issues in Crossref’s funding data, particularly in Scopus.
+    Offers recommendations for improving the open availability of funding data in Crossref.
+DOI: 10.5281/zenodo.14006424: This paper compares the coverage and metadata availability of African publications in OpenAlex, Scopus, Web of Science, and African Journals Online, specifically noting issues with funder information.
+DOI: 10.31274/b8136f97.ccc3dae4 - Compares funder metadata in OpenAlex and Dimensions, noting OpenAlex relies on Crossref for metadata, while Dimensions uses natural language processing to infer funders.
+    Highlights the limitations of OpenAlex in capturing funder metadata due to optional fields in DOI registration.
+DOI: 10.31222/osf.io/smxe5 - This paper assesses Crossref as a source of open bibliographic metadata, including funding information, and tracks improvements in metadata availability over time.</t>
+  </si>
+  <si>
+    <t>['10.1590/SciELOPreprints.11205', '10.1162/qss_a_00022', '10.1007/s11192-022-04367-w', '10.31222/osf.io/smxe5', '10.1162/qss_a_00210']</t>
+  </si>
+  <si>
+    <t>Question: **Evaluation of the Provided DOIs for the Question "Tell me about Crossref":**
+1. **DOI: 10.1162/qss_a_00022**  
+   - **Correctness:** Yes  
+   - **Summary:** This paper describes Crossref as a major source of scholarly metadata, detailing its content types, APIs, and role in the research ecosystem. It emphasizes Crossref's community-owned nature and its importance for scientometrics.  
+   - **Relevance:** Highly relevant, as it directly explains Crossref's purpose, structure, and significance.  
+2. **DOI: 10.31222/osf.io/smxe5**  
+   - **Correctness:** Yes  
+   - **Summary:** This paper discusses Crossref as a source of open bibliographic metadata, analyzing the availability of metadata elements like reference lists, abstracts, and ORCIDs. It highlights improvements over time but notes areas for publisher effort.  
+   - **Relevance:** Relevant, as it provides insights into Crossref's metadata availability and openness.  
+3. **DOI: 10.1007/s11192-022-04367-w**  
+   - **Correctness:** Yes  
+   - **Summary:** This paper identifies and corrects invalid citations due to DOI errors in Crossref data, extending the taxonomy of DOI errors and proposing automated correction methods.  
+   - **Relevance:** Relevant, as it addresses data quality issues in Crossref.  
+4. **DOI: 10.1162/qss_a_00210**  
+   - **Correctness:** Yes  
+   - **Summary:** This paper examines the completeness of open funder metadata in Crossref, comparing it with proprietary databases like Web of Science and Scopus. It highlights gaps in funding data coverage.  
+   - **Relevance:** Relevant, as it discusses Crossref's role in funding metadata.  
+5. **DOI: 10.1590/SciELOPreprints.11205**  
+   - **Correctness:** Yes  
+   - **Summary:** This paper explores OpenAlex's indexing of journals using Open Journal Systems, emphasizing the role of Crossref DOIs in achieving indexing. It highlights structural inequities in representation.  
+   - **Relevance:** Relevant, as it discusses Crossref's
+True Positives by DOI: ['10.1590/SciELOPreprints.11205', '10.1162/qss_a_00022', '10.1007/s11192-022-04367-w', '10.31222/osf.io/smxe5', '10.1162/qss_a_00210']
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>["10.1007/s11192-022-04367-w","10.1108/JD-10-2022-0234","10.1007/s11192-015-1765-5","10.1162/qss_a_00112","10.1162/qss_a_00210"]</t>
+  </si>
+  <si>
+    <t>Question: **Evaluation of the provided DOIs for the question "Which studies examined citations?"**
+Here’s the evaluation of each DOI, with a brief summary and whether it correctly addresses the question about studies examining citations:
+1. **DOI: 10.1007/s11192-022-04367-w**  
+   - **Summary**: Identifies and corrects invalid citations due to DOI errors in Crossref data.  
+   - **Correctness**: Yes, this study directly examines citations and their validity.  
+   - **Answer**: Yes  
+2. **DOI: 10.1007/s11192-015-1765-5**  
+   - **Summary**: Compares journal coverage of Web of Science and Scopus, discussing biases in citation analysis.  
+   - **Correctness**: Yes, it examines citations in the context of bibliometric databases.  
+   - **Answer**: Yes  
+3. **DOI: 10.1162/qss_a_00112**  
+   - **Summary**: Compares bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) for citation completeness and accuracy.  
+   - **Correctness**: Yes, it directly examines citations across different databases.  
+   - **Answer**: Yes  
+4. **DOI: 10.1162/qss_a_00210**  
+   - **Summary**: Analyzes the availability and completeness of open funder metadata in Crossref, including citation-related metadata.  
+   - **Correctness**: Yes, it examines metadata related to citations.  
+   - **Answer**: Yes  
+**Recommendation**: Since all four DOIs are correct and relevant, no additional document is needed. However, if you wish to include a fifth study, **DOI: 10.1108/JD-10-2022-0234** could be considered, as it analyzes citing and referencing habits across scholarly disciplines, which indirectly relates to citations.  
+**Final Answer**: Yes, all provided DOIs are correct. No additional document is necessary.
+--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>['10.1162/qss_a_00286', '10.1002/leap.1411', '10.1007/s11192-020-03632-0', '10.1162/qss_a_00022', '10.31222/osf.io/smxe5']</t>
+  </si>
+  <si>
+    <t>Question: **Evaluation of the provided DOI list for the question "which studies examined the abstract in metadata?"**
+**Correct DOIs (Yes):**
+1. **10.1002/leap.1411**  
+   - *Summary*: Examines the lexical content of abstracts in preprints during the COVID-19 crisis, comparing them to pre-pandemic abstracts. Focuses on promotional language, positive/negative words, and hedge words.  
+   - *Relevance*: Directly analyzes abstracts and their metadata.  
+2. **10.1007/s11192-020-03632-0**  
+   - *Summary*: Assesses the type of articles published during the first 3 months of the COVID-19 pandemic, comparing them to H1N1 articles. Extracts and evaluates abstracts from PubMed.  
+   - *Relevance*: Explicitly examines abstracts in metadata.  
+3. **10.1162/qss_a_00286**  
+   - *Summary*: Compares the completeness of metadata, including abstracts, across eight free-access scholarly databases using a Crossref sample of 115,000 records.  
+   - *Relevance*: Directly evaluates abstract metadata.  
+4. **10.1162/qss_a_00022**  
+   - *Summary*: Describes Crossref's scholarly metadata, including abstracts, and its role in the research ecosystem. Highlights the availability and importance of abstracts.  
+   - *Relevance*: Focuses on abstract metadata in Crossref.  
+5. **10.31222/osf.io/smxe5**  
+   - *Summary*: Analyzes the availability of metadata elements, including abstracts, in Crossref over time, emphasizing improvements and publisher efforts.  
+   - *Relevance*: Directly examines abstract metadata.  
+**Incorrect DOIs (No):**  
+All other DOIs provided do not explicitly examine abstracts in metadata. They focus on other aspects such as retrieval-augmented generation (RAG), metadata quality in general, bibliometric analyses, or specific applications of metadata without a focus on abstracts.  
+**Recommendation for Additional Document:**  
+Since the list already includes 5 relevant DOIs, no additional document is needed. However, if expanding, consider **10.52
+True Positives by DOI: ['10.1162/qss_a_00286', '10.1002/leap.1411', '10.1007/s11192-020-03632-0', '10.1162/qss_a_00022', '10.31222/osf.io/smxe5']
+--------------------------------------------------------------------------------</t>
   </si>
 </sst>
 </file>
@@ -507,12 +642,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -532,8 +673,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,273 +1011,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8EB78C-47DC-6D45-9388-270DC7642366}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="45.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="174.6640625" customWidth="1"/>
+    <col min="4" max="4" width="107.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="110.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="404" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="323" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="388" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="388" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="289" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="356" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="356" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/part_3_cohere/golden_set.xlsx
+++ b/part_3_cohere/golden_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02A841-A529-8C40-B2CD-BD91CE2E1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C03929-AEB2-4043-AA33-E1B7EF3F1B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="760" windowWidth="25060" windowHeight="17980" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
+    <workbookView xWindow="4640" yWindow="760" windowWidth="25060" windowHeight="17980" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,18 +1013,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8EB78C-47DC-6D45-9388-270DC7642366}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="45.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="107.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="110.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="111.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="165.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>

--- a/part_3_cohere/golden_set.xlsx
+++ b/part_3_cohere/golden_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C03929-AEB2-4043-AA33-E1B7EF3F1B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004516B2-8E27-0A4A-8E09-C1E7B57ACC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="760" windowWidth="25060" windowHeight="17980" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
+    <workbookView xWindow="30640" yWindow="500" windowWidth="35120" windowHeight="21100" xr2:uid="{880841E7-863D-A447-B68C-E2C9E254AA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8EB78C-47DC-6D45-9388-270DC7642366}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
